--- a/Misc.xlsx
+++ b/Misc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C922B2F-72D1-40F5-A7BC-EC401449BFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09C6D93-40DB-427E-8633-0BBBCDD4A10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Part Number</t>
   </si>
@@ -76,6 +76,30 @@
   </si>
   <si>
     <t>Фильтр</t>
+  </si>
+  <si>
+    <t>Фильтр ВД</t>
+  </si>
+  <si>
+    <t>Фильтр НД</t>
+  </si>
+  <si>
+    <t>Фильтр полосовой ВД</t>
+  </si>
+  <si>
+    <t>Фильтр нижних частот НД</t>
+  </si>
+  <si>
+    <t>Фильтр ВД ФНЧ</t>
+  </si>
+  <si>
+    <t>Полосовой фильтр</t>
+  </si>
+  <si>
+    <t>Фильтр нижних частот</t>
+  </si>
+  <si>
+    <t>Фильтр нижних частот ВД</t>
   </si>
 </sst>
 </file>
@@ -394,24 +418,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -470,6 +494,66 @@
         <v>16</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
